--- a/pinederby.xlsx
+++ b/pinederby.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="8610"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="8610" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Id</t>
   </si>
@@ -63,6 +64,39 @@
   </si>
   <si>
     <t>bin</t>
+  </si>
+  <si>
+    <t>range4</t>
+  </si>
+  <si>
+    <t>range3</t>
+  </si>
+  <si>
+    <t>range5</t>
+  </si>
+  <si>
+    <t>range6</t>
+  </si>
+  <si>
+    <t>range7</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>L2</t>
+  </si>
+  <si>
+    <t>L3</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>S3</t>
   </si>
 </sst>
 </file>
@@ -112,15 +146,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -403,11 +434,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q226"/>
+  <dimension ref="A1:S211"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q12" sqref="Q12"/>
+      <selection pane="bottomLeft" activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -415,7 +446,7 @@
     <col min="11" max="12" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -456,10 +487,22 @@
         <v>11</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -470,53 +513,65 @@
         <v>15</v>
       </c>
       <c r="D2">
-        <f>SUM(E2:F2)</f>
-        <v>2</v>
+        <f t="shared" ref="D2:D61" si="0">SUM(E2:F2)</f>
+        <v>3</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2">
-        <f>MAX(D2:D226)</f>
-        <v>30</v>
+        <f>MAX(D2:D211)</f>
+        <v>29</v>
       </c>
       <c r="I2">
-        <f>MIN(D2:D226)</f>
-        <v>2</v>
+        <f>MIN(D2:D211)</f>
+        <v>3</v>
       </c>
       <c r="J2">
-        <f>AVERAGE(D2:D226)</f>
+        <f>AVERAGE(D2:D211)</f>
         <v>16</v>
       </c>
       <c r="K2" s="3">
-        <f>STDEV(D2:D226)</f>
-        <v>6.1237243569579451</v>
+        <f>STDEV(D2:D211)</f>
+        <v>5.90190951177392</v>
       </c>
       <c r="L2" s="4">
         <f>$J$2-3*$K$2</f>
-        <v>-2.3711730708738372</v>
+        <v>-1.7057285353217608</v>
       </c>
       <c r="M2" t="str">
-        <f>CONCATENATE(TEXT(($J$2+$L$2),"#")," - ",TEXT(($J$2-$L$2),"#"))</f>
+        <f>CONCATENATE(TEXT(($J$2+$L2),"#")," - ",TEXT(($J$2-$L2),"#"))</f>
         <v>14 - 18</v>
       </c>
       <c r="N2" t="str">
-        <f>CONCATENATE(TEXT(($J$2+2*$L$2),"#")," - ",TEXT(($J$2-2*$L$2),"#"))</f>
+        <f>CONCATENATE(TEXT(($J$2+2*$L2),"#")," - ",TEXT(($J$2-2*$L2),"#"))</f>
+        <v>13 - 19</v>
+      </c>
+      <c r="O2" t="str">
+        <f>CONCATENATE(TEXT(($J$2+3*$L2),"#")," - ",TEXT(($J$2-3*$L2),"#"))</f>
         <v>11 - 21</v>
       </c>
-      <c r="O2" t="str">
-        <f>CONCATENATE(TEXT(($J$2+3*$L$2),"#")," - ",TEXT(($J$2-3*$L$2),"#"))</f>
+      <c r="P2" t="str">
+        <f>CONCATENATE(TEXT(($J$2+4*$L2),"#")," - ",TEXT(($J$2-4*$L2),"#"))</f>
         <v>9 - 23</v>
       </c>
-      <c r="Q2" s="5">
-        <f>L2+$K$2</f>
-        <v>3.7525512860841079</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q2" t="str">
+        <f>CONCATENATE(TEXT(($J$2+5*$L2),"#")," - ",TEXT(($J$2-5*$L2),"#"))</f>
+        <v>7 - 25</v>
+      </c>
+      <c r="R2" t="str">
+        <f>CONCATENATE(TEXT(($J$2+6*$L2),"#")," - ",TEXT(($J$2-6*$L2),"#"))</f>
+        <v>6 - 26</v>
+      </c>
+      <c r="S2" t="str">
+        <f>CONCATENATE(TEXT(($J$2+7*$L2),"#")," - ",TEXT(($J$2-7*$L2),"#"))</f>
+        <v>4 - 28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -527,17 +582,45 @@
         <v>15</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D66" si="0">SUM(E3:F3)</f>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="L3" s="3">
+        <f>ROUND(L2,0)</f>
+        <v>-2</v>
+      </c>
+      <c r="M3" t="str">
+        <f>CONCATENATE(TEXT(($J$2+$L3),"#")," - ",TEXT(($J$2-$L3),"#"))</f>
+        <v>14 - 18</v>
+      </c>
+      <c r="N3" t="str">
+        <f>CONCATENATE(TEXT(($J$2+2*$L3),"#")," - ",TEXT(($J$2-2*$L3),"#"))</f>
+        <v>12 - 20</v>
+      </c>
+      <c r="O3" t="str">
+        <f>CONCATENATE(TEXT(($J$2+3*$L3),"#")," - ",TEXT(($J$2-3*$L3),"#"))</f>
+        <v>10 - 22</v>
+      </c>
+      <c r="P3" t="str">
+        <f>CONCATENATE(TEXT(($J$2+4*$L3),"#")," - ",TEXT(($J$2-4*$L3),"#"))</f>
+        <v>8 - 24</v>
+      </c>
+      <c r="Q3" t="str">
+        <f>CONCATENATE(TEXT(($J$2+5*$L3),"#")," - ",TEXT(($J$2-5*$L3),"#"))</f>
+        <v>6 - 26</v>
+      </c>
+      <c r="R3" t="str">
+        <f>CONCATENATE(TEXT(($J$2+6*$L3),"#")," - ",TEXT(($J$2-6*$L3),"#"))</f>
+        <v>4 - 28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -549,16 +632,24 @@
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="M4" s="3">
+        <f>($J$2-$L$3)-($J$2+$L$3)</f>
+        <v>4</v>
+      </c>
+      <c r="N4">
+        <f>($J$2-2*$L$3)-($J$2+2*$L$3)-M4</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -570,16 +661,16 @@
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -591,16 +682,16 @@
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -612,16 +703,16 @@
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -633,16 +724,16 @@
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -654,16 +745,16 @@
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -675,16 +766,16 @@
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -696,16 +787,16 @@
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -717,16 +808,16 @@
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -738,16 +829,16 @@
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -759,16 +850,16 @@
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -780,16 +871,16 @@
       </c>
       <c r="D15">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -801,13 +892,13 @@
       </c>
       <c r="D16">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
         <v>1</v>
-      </c>
-      <c r="F16">
-        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -822,13 +913,13 @@
       </c>
       <c r="D17">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E17">
         <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -843,13 +934,13 @@
       </c>
       <c r="D18">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E18">
         <v>2</v>
       </c>
       <c r="F18">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -864,13 +955,13 @@
       </c>
       <c r="D19">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E19">
         <v>2</v>
       </c>
       <c r="F19">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -885,13 +976,13 @@
       </c>
       <c r="D20">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E20">
         <v>2</v>
       </c>
       <c r="F20">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -906,13 +997,13 @@
       </c>
       <c r="D21">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E21">
         <v>2</v>
       </c>
       <c r="F21">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -927,13 +1018,13 @@
       </c>
       <c r="D22">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E22">
         <v>2</v>
       </c>
       <c r="F22">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -948,13 +1039,13 @@
       </c>
       <c r="D23">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E23">
         <v>2</v>
       </c>
       <c r="F23">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -969,13 +1060,13 @@
       </c>
       <c r="D24">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E24">
         <v>2</v>
       </c>
       <c r="F24">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -990,13 +1081,13 @@
       </c>
       <c r="D25">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E25">
         <v>2</v>
       </c>
       <c r="F25">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1011,13 +1102,13 @@
       </c>
       <c r="D26">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E26">
         <v>2</v>
       </c>
       <c r="F26">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1032,13 +1123,13 @@
       </c>
       <c r="D27">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E27">
         <v>2</v>
       </c>
       <c r="F27">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1053,13 +1144,13 @@
       </c>
       <c r="D28">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E28">
         <v>2</v>
       </c>
       <c r="F28">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1074,13 +1165,13 @@
       </c>
       <c r="D29">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E29">
         <v>2</v>
       </c>
       <c r="F29">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1095,13 +1186,13 @@
       </c>
       <c r="D30">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F30">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1116,13 +1207,13 @@
       </c>
       <c r="D31">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
         <v>2</v>
-      </c>
-      <c r="F31">
-        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1137,13 +1228,13 @@
       </c>
       <c r="D32">
         <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
         <v>4</v>
-      </c>
-      <c r="E32">
-        <v>3</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1158,13 +1249,13 @@
       </c>
       <c r="D33">
         <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
         <v>5</v>
-      </c>
-      <c r="E33">
-        <v>3</v>
-      </c>
-      <c r="F33">
-        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1179,13 +1270,13 @@
       </c>
       <c r="D34">
         <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
         <v>6</v>
-      </c>
-      <c r="E34">
-        <v>3</v>
-      </c>
-      <c r="F34">
-        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1200,13 +1291,13 @@
       </c>
       <c r="D35">
         <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
         <v>7</v>
-      </c>
-      <c r="E35">
-        <v>3</v>
-      </c>
-      <c r="F35">
-        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1221,13 +1312,13 @@
       </c>
       <c r="D36">
         <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
         <v>8</v>
-      </c>
-      <c r="E36">
-        <v>3</v>
-      </c>
-      <c r="F36">
-        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1242,13 +1333,13 @@
       </c>
       <c r="D37">
         <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
         <v>9</v>
-      </c>
-      <c r="E37">
-        <v>3</v>
-      </c>
-      <c r="F37">
-        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1263,13 +1354,13 @@
       </c>
       <c r="D38">
         <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="E38">
+        <v>3</v>
+      </c>
+      <c r="F38">
         <v>10</v>
-      </c>
-      <c r="E38">
-        <v>3</v>
-      </c>
-      <c r="F38">
-        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1284,13 +1375,13 @@
       </c>
       <c r="D39">
         <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="E39">
+        <v>3</v>
+      </c>
+      <c r="F39">
         <v>11</v>
-      </c>
-      <c r="E39">
-        <v>3</v>
-      </c>
-      <c r="F39">
-        <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1305,13 +1396,13 @@
       </c>
       <c r="D40">
         <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="E40">
+        <v>3</v>
+      </c>
+      <c r="F40">
         <v>12</v>
-      </c>
-      <c r="E40">
-        <v>3</v>
-      </c>
-      <c r="F40">
-        <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1326,13 +1417,13 @@
       </c>
       <c r="D41">
         <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="E41">
+        <v>3</v>
+      </c>
+      <c r="F41">
         <v>13</v>
-      </c>
-      <c r="E41">
-        <v>3</v>
-      </c>
-      <c r="F41">
-        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1347,13 +1438,13 @@
       </c>
       <c r="D42">
         <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="E42">
+        <v>3</v>
+      </c>
+      <c r="F42">
         <v>14</v>
-      </c>
-      <c r="E42">
-        <v>3</v>
-      </c>
-      <c r="F42">
-        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1368,13 +1459,13 @@
       </c>
       <c r="D43">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E43">
         <v>3</v>
       </c>
       <c r="F43">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1389,13 +1480,13 @@
       </c>
       <c r="D44">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E44">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F44">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1410,13 +1501,13 @@
       </c>
       <c r="D45">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E45">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F45">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1431,13 +1522,13 @@
       </c>
       <c r="D46">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E46">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F46">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -1452,13 +1543,13 @@
       </c>
       <c r="D47">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E47">
         <v>4</v>
       </c>
       <c r="F47">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1473,13 +1564,13 @@
       </c>
       <c r="D48">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E48">
         <v>4</v>
       </c>
       <c r="F48">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -1494,13 +1585,13 @@
       </c>
       <c r="D49">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E49">
         <v>4</v>
       </c>
       <c r="F49">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -1515,13 +1606,13 @@
       </c>
       <c r="D50">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E50">
         <v>4</v>
       </c>
       <c r="F50">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -1536,13 +1627,13 @@
       </c>
       <c r="D51">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E51">
         <v>4</v>
       </c>
       <c r="F51">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -1557,13 +1648,13 @@
       </c>
       <c r="D52">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E52">
         <v>4</v>
       </c>
       <c r="F52">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -1578,13 +1669,13 @@
       </c>
       <c r="D53">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E53">
         <v>4</v>
       </c>
       <c r="F53">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -1599,13 +1690,13 @@
       </c>
       <c r="D54">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E54">
         <v>4</v>
       </c>
       <c r="F54">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -1620,13 +1711,13 @@
       </c>
       <c r="D55">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E55">
         <v>4</v>
       </c>
       <c r="F55">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -1641,13 +1732,13 @@
       </c>
       <c r="D56">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E56">
         <v>4</v>
       </c>
       <c r="F56">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -1662,13 +1753,13 @@
       </c>
       <c r="D57">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E57">
         <v>4</v>
       </c>
       <c r="F57">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -1683,13 +1774,13 @@
       </c>
       <c r="D58">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E58">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F58">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -1704,13 +1795,13 @@
       </c>
       <c r="D59">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E59">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F59">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -1725,13 +1816,13 @@
       </c>
       <c r="D60">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E60">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F60">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -1746,13 +1837,13 @@
       </c>
       <c r="D61">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E61">
+        <v>5</v>
+      </c>
+      <c r="F61">
         <v>4</v>
-      </c>
-      <c r="F61">
-        <v>15</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -1766,14 +1857,14 @@
         <v>15</v>
       </c>
       <c r="D62">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <f t="shared" ref="D62:D121" si="1">SUM(E62:F62)</f>
+        <v>11</v>
       </c>
       <c r="E62">
         <v>5</v>
       </c>
       <c r="F62">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -1787,14 +1878,14 @@
         <v>15</v>
       </c>
       <c r="D63">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>12</v>
       </c>
       <c r="E63">
         <v>5</v>
       </c>
       <c r="F63">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -1808,14 +1899,14 @@
         <v>15</v>
       </c>
       <c r="D64">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <f t="shared" si="1"/>
+        <v>13</v>
       </c>
       <c r="E64">
         <v>5</v>
       </c>
       <c r="F64">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -1829,14 +1920,14 @@
         <v>15</v>
       </c>
       <c r="D65">
-        <f t="shared" si="0"/>
-        <v>9</v>
+        <f t="shared" si="1"/>
+        <v>14</v>
       </c>
       <c r="E65">
         <v>5</v>
       </c>
       <c r="F65">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -1850,14 +1941,14 @@
         <v>15</v>
       </c>
       <c r="D66">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
       <c r="E66">
         <v>5</v>
       </c>
       <c r="F66">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -1871,14 +1962,14 @@
         <v>15</v>
       </c>
       <c r="D67">
-        <f t="shared" ref="D67:D130" si="1">SUM(E67:F67)</f>
-        <v>11</v>
+        <f t="shared" si="1"/>
+        <v>16</v>
       </c>
       <c r="E67">
         <v>5</v>
       </c>
       <c r="F67">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -1893,13 +1984,13 @@
       </c>
       <c r="D68">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E68">
         <v>5</v>
       </c>
       <c r="F68">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -1914,13 +2005,13 @@
       </c>
       <c r="D69">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E69">
         <v>5</v>
       </c>
       <c r="F69">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -1935,13 +2026,13 @@
       </c>
       <c r="D70">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E70">
         <v>5</v>
       </c>
       <c r="F70">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -1956,13 +2047,13 @@
       </c>
       <c r="D71">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E71">
         <v>5</v>
       </c>
       <c r="F71">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -1977,13 +2068,13 @@
       </c>
       <c r="D72">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E72">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F72">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -1998,13 +2089,13 @@
       </c>
       <c r="D73">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E73">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F73">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -2019,13 +2110,13 @@
       </c>
       <c r="D74">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E74">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F74">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -2040,13 +2131,13 @@
       </c>
       <c r="D75">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E75">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F75">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -2061,13 +2152,13 @@
       </c>
       <c r="D76">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E76">
+        <v>6</v>
+      </c>
+      <c r="F76">
         <v>5</v>
-      </c>
-      <c r="F76">
-        <v>15</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -2082,13 +2173,13 @@
       </c>
       <c r="D77">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E77">
         <v>6</v>
       </c>
       <c r="F77">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -2103,13 +2194,13 @@
       </c>
       <c r="D78">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E78">
         <v>6</v>
       </c>
       <c r="F78">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -2124,13 +2215,13 @@
       </c>
       <c r="D79">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E79">
         <v>6</v>
       </c>
       <c r="F79">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -2145,13 +2236,13 @@
       </c>
       <c r="D80">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E80">
         <v>6</v>
       </c>
       <c r="F80">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -2166,13 +2257,13 @@
       </c>
       <c r="D81">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E81">
         <v>6</v>
       </c>
       <c r="F81">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -2187,13 +2278,13 @@
       </c>
       <c r="D82">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E82">
         <v>6</v>
       </c>
       <c r="F82">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -2208,13 +2299,13 @@
       </c>
       <c r="D83">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E83">
         <v>6</v>
       </c>
       <c r="F83">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -2229,13 +2320,13 @@
       </c>
       <c r="D84">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E84">
         <v>6</v>
       </c>
       <c r="F84">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -2250,13 +2341,13 @@
       </c>
       <c r="D85">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E85">
         <v>6</v>
       </c>
       <c r="F85">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -2271,13 +2362,13 @@
       </c>
       <c r="D86">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E86">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F86">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -2292,13 +2383,13 @@
       </c>
       <c r="D87">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E87">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F87">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -2313,13 +2404,13 @@
       </c>
       <c r="D88">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E88">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F88">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -2334,13 +2425,13 @@
       </c>
       <c r="D89">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E89">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F89">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -2355,13 +2446,13 @@
       </c>
       <c r="D90">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E90">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F90">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -2376,13 +2467,13 @@
       </c>
       <c r="D91">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E91">
+        <v>7</v>
+      </c>
+      <c r="F91">
         <v>6</v>
-      </c>
-      <c r="F91">
-        <v>15</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -2397,13 +2488,13 @@
       </c>
       <c r="D92">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E92">
         <v>7</v>
       </c>
       <c r="F92">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -2418,13 +2509,13 @@
       </c>
       <c r="D93">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E93">
         <v>7</v>
       </c>
       <c r="F93">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -2439,13 +2530,13 @@
       </c>
       <c r="D94">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E94">
         <v>7</v>
       </c>
       <c r="F94">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -2460,13 +2551,13 @@
       </c>
       <c r="D95">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E95">
         <v>7</v>
       </c>
       <c r="F95">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -2481,13 +2572,13 @@
       </c>
       <c r="D96">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E96">
         <v>7</v>
       </c>
       <c r="F96">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -2502,13 +2593,13 @@
       </c>
       <c r="D97">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E97">
         <v>7</v>
       </c>
       <c r="F97">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -2523,13 +2614,13 @@
       </c>
       <c r="D98">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E98">
         <v>7</v>
       </c>
       <c r="F98">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -2544,13 +2635,13 @@
       </c>
       <c r="D99">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E99">
         <v>7</v>
       </c>
       <c r="F99">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -2565,13 +2656,13 @@
       </c>
       <c r="D100">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E100">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F100">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -2586,13 +2677,13 @@
       </c>
       <c r="D101">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E101">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F101">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -2607,13 +2698,13 @@
       </c>
       <c r="D102">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E102">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F102">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -2628,13 +2719,13 @@
       </c>
       <c r="D103">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E103">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F103">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -2649,13 +2740,13 @@
       </c>
       <c r="D104">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E104">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F104">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -2670,13 +2761,13 @@
       </c>
       <c r="D105">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E105">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F105">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -2691,13 +2782,13 @@
       </c>
       <c r="D106">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E106">
+        <v>8</v>
+      </c>
+      <c r="F106">
         <v>7</v>
-      </c>
-      <c r="F106">
-        <v>15</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -2712,13 +2803,13 @@
       </c>
       <c r="D107">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E107">
         <v>8</v>
       </c>
       <c r="F107">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -2733,13 +2824,13 @@
       </c>
       <c r="D108">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E108">
         <v>8</v>
       </c>
       <c r="F108">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
@@ -2754,13 +2845,13 @@
       </c>
       <c r="D109">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E109">
         <v>8</v>
       </c>
       <c r="F109">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -2775,13 +2866,13 @@
       </c>
       <c r="D110">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E110">
         <v>8</v>
       </c>
       <c r="F110">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -2796,13 +2887,13 @@
       </c>
       <c r="D111">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E111">
         <v>8</v>
       </c>
       <c r="F111">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
@@ -2817,13 +2908,13 @@
       </c>
       <c r="D112">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E112">
         <v>8</v>
       </c>
       <c r="F112">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -2838,13 +2929,13 @@
       </c>
       <c r="D113">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E113">
         <v>8</v>
       </c>
       <c r="F113">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -2859,13 +2950,13 @@
       </c>
       <c r="D114">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E114">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F114">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -2880,13 +2971,13 @@
       </c>
       <c r="D115">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E115">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F115">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -2901,13 +2992,13 @@
       </c>
       <c r="D116">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E116">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F116">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -2922,13 +3013,13 @@
       </c>
       <c r="D117">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E117">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F117">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -2943,13 +3034,13 @@
       </c>
       <c r="D118">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E118">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F118">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
@@ -2964,13 +3055,13 @@
       </c>
       <c r="D119">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E119">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F119">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
@@ -2985,13 +3076,13 @@
       </c>
       <c r="D120">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E120">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F120">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
@@ -3006,13 +3097,13 @@
       </c>
       <c r="D121">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E121">
+        <v>9</v>
+      </c>
+      <c r="F121">
         <v>8</v>
-      </c>
-      <c r="F121">
-        <v>15</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -3026,14 +3117,14 @@
         <v>15</v>
       </c>
       <c r="D122">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f t="shared" ref="D122:D181" si="2">SUM(E122:F122)</f>
+        <v>19</v>
       </c>
       <c r="E122">
         <v>9</v>
       </c>
       <c r="F122">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -3047,14 +3138,14 @@
         <v>15</v>
       </c>
       <c r="D123">
-        <f t="shared" si="1"/>
-        <v>11</v>
+        <f t="shared" si="2"/>
+        <v>20</v>
       </c>
       <c r="E123">
         <v>9</v>
       </c>
       <c r="F123">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
@@ -3068,14 +3159,14 @@
         <v>15</v>
       </c>
       <c r="D124">
-        <f t="shared" si="1"/>
-        <v>12</v>
+        <f t="shared" si="2"/>
+        <v>21</v>
       </c>
       <c r="E124">
         <v>9</v>
       </c>
       <c r="F124">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
@@ -3089,14 +3180,14 @@
         <v>15</v>
       </c>
       <c r="D125">
-        <f t="shared" si="1"/>
-        <v>13</v>
+        <f t="shared" si="2"/>
+        <v>22</v>
       </c>
       <c r="E125">
         <v>9</v>
       </c>
       <c r="F125">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
@@ -3110,14 +3201,14 @@
         <v>15</v>
       </c>
       <c r="D126">
-        <f t="shared" si="1"/>
-        <v>14</v>
+        <f t="shared" si="2"/>
+        <v>23</v>
       </c>
       <c r="E126">
         <v>9</v>
       </c>
       <c r="F126">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -3131,14 +3222,14 @@
         <v>15</v>
       </c>
       <c r="D127">
-        <f t="shared" si="1"/>
-        <v>15</v>
+        <f t="shared" si="2"/>
+        <v>24</v>
       </c>
       <c r="E127">
         <v>9</v>
       </c>
       <c r="F127">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
@@ -3152,14 +3243,14 @@
         <v>15</v>
       </c>
       <c r="D128">
-        <f t="shared" si="1"/>
-        <v>16</v>
+        <f t="shared" si="2"/>
+        <v>11</v>
       </c>
       <c r="E128">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F128">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
@@ -3173,14 +3264,14 @@
         <v>15</v>
       </c>
       <c r="D129">
-        <f t="shared" si="1"/>
-        <v>17</v>
+        <f t="shared" si="2"/>
+        <v>12</v>
       </c>
       <c r="E129">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F129">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
@@ -3194,14 +3285,14 @@
         <v>15</v>
       </c>
       <c r="D130">
-        <f t="shared" si="1"/>
-        <v>18</v>
+        <f t="shared" si="2"/>
+        <v>13</v>
       </c>
       <c r="E130">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F130">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
@@ -3215,14 +3306,14 @@
         <v>15</v>
       </c>
       <c r="D131">
-        <f t="shared" ref="D131:D194" si="2">SUM(E131:F131)</f>
-        <v>19</v>
+        <f t="shared" si="2"/>
+        <v>14</v>
       </c>
       <c r="E131">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F131">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
@@ -3237,13 +3328,13 @@
       </c>
       <c r="D132">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E132">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F132">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
@@ -3258,13 +3349,13 @@
       </c>
       <c r="D133">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E133">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F133">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
@@ -3279,13 +3370,13 @@
       </c>
       <c r="D134">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E134">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F134">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
@@ -3300,13 +3391,13 @@
       </c>
       <c r="D135">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E135">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F135">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
@@ -3321,13 +3412,13 @@
       </c>
       <c r="D136">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E136">
+        <v>10</v>
+      </c>
+      <c r="F136">
         <v>9</v>
-      </c>
-      <c r="F136">
-        <v>15</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
@@ -3342,13 +3433,13 @@
       </c>
       <c r="D137">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E137">
         <v>10</v>
       </c>
       <c r="F137">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
@@ -3363,13 +3454,13 @@
       </c>
       <c r="D138">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E138">
         <v>10</v>
       </c>
       <c r="F138">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
@@ -3384,13 +3475,13 @@
       </c>
       <c r="D139">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E139">
         <v>10</v>
       </c>
       <c r="F139">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
@@ -3405,13 +3496,13 @@
       </c>
       <c r="D140">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E140">
         <v>10</v>
       </c>
       <c r="F140">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
@@ -3426,13 +3517,13 @@
       </c>
       <c r="D141">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E141">
         <v>10</v>
       </c>
       <c r="F141">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
@@ -3447,13 +3538,13 @@
       </c>
       <c r="D142">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E142">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F142">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
@@ -3468,13 +3559,13 @@
       </c>
       <c r="D143">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E143">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F143">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
@@ -3489,13 +3580,13 @@
       </c>
       <c r="D144">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E144">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F144">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
@@ -3510,13 +3601,13 @@
       </c>
       <c r="D145">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E145">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F145">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
@@ -3531,13 +3622,13 @@
       </c>
       <c r="D146">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E146">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F146">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
@@ -3552,13 +3643,13 @@
       </c>
       <c r="D147">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E147">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F147">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
@@ -3573,13 +3664,13 @@
       </c>
       <c r="D148">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E148">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F148">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
@@ -3594,13 +3685,13 @@
       </c>
       <c r="D149">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E149">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F149">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
@@ -3615,13 +3706,13 @@
       </c>
       <c r="D150">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E150">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F150">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
@@ -3636,13 +3727,13 @@
       </c>
       <c r="D151">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E151">
+        <v>11</v>
+      </c>
+      <c r="F151">
         <v>10</v>
-      </c>
-      <c r="F151">
-        <v>15</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
@@ -3657,13 +3748,13 @@
       </c>
       <c r="D152">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E152">
         <v>11</v>
       </c>
       <c r="F152">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
@@ -3678,13 +3769,13 @@
       </c>
       <c r="D153">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E153">
         <v>11</v>
       </c>
       <c r="F153">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
@@ -3699,13 +3790,13 @@
       </c>
       <c r="D154">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E154">
         <v>11</v>
       </c>
       <c r="F154">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
@@ -3720,13 +3811,13 @@
       </c>
       <c r="D155">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="E155">
         <v>11</v>
       </c>
       <c r="F155">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
@@ -3741,13 +3832,13 @@
       </c>
       <c r="D156">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E156">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F156">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
@@ -3762,13 +3853,13 @@
       </c>
       <c r="D157">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E157">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F157">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
@@ -3783,13 +3874,13 @@
       </c>
       <c r="D158">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E158">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F158">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
@@ -3804,13 +3895,13 @@
       </c>
       <c r="D159">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E159">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F159">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
@@ -3825,13 +3916,13 @@
       </c>
       <c r="D160">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E160">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F160">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
@@ -3846,13 +3937,13 @@
       </c>
       <c r="D161">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E161">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F161">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
@@ -3867,13 +3958,13 @@
       </c>
       <c r="D162">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E162">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F162">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
@@ -3888,13 +3979,13 @@
       </c>
       <c r="D163">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E163">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F163">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
@@ -3909,13 +4000,13 @@
       </c>
       <c r="D164">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E164">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F164">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
@@ -3930,13 +4021,13 @@
       </c>
       <c r="D165">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E165">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F165">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
@@ -3951,13 +4042,13 @@
       </c>
       <c r="D166">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E166">
+        <v>12</v>
+      </c>
+      <c r="F166">
         <v>11</v>
-      </c>
-      <c r="F166">
-        <v>15</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
@@ -3972,13 +4063,13 @@
       </c>
       <c r="D167">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E167">
         <v>12</v>
       </c>
       <c r="F167">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
@@ -3993,13 +4084,13 @@
       </c>
       <c r="D168">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E168">
         <v>12</v>
       </c>
       <c r="F168">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
@@ -4014,13 +4105,13 @@
       </c>
       <c r="D169">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E169">
         <v>12</v>
       </c>
       <c r="F169">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
@@ -4035,13 +4126,13 @@
       </c>
       <c r="D170">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E170">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F170">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
@@ -4056,13 +4147,13 @@
       </c>
       <c r="D171">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E171">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F171">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
@@ -4077,13 +4168,13 @@
       </c>
       <c r="D172">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E172">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F172">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
@@ -4098,13 +4189,13 @@
       </c>
       <c r="D173">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E173">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F173">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
@@ -4119,13 +4210,13 @@
       </c>
       <c r="D174">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E174">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F174">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
@@ -4140,13 +4231,13 @@
       </c>
       <c r="D175">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E175">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F175">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
@@ -4161,13 +4252,13 @@
       </c>
       <c r="D176">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E176">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F176">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
@@ -4182,13 +4273,13 @@
       </c>
       <c r="D177">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E177">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F177">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
@@ -4203,13 +4294,13 @@
       </c>
       <c r="D178">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E178">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F178">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
@@ -4224,13 +4315,13 @@
       </c>
       <c r="D179">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E179">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F179">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
@@ -4245,13 +4336,13 @@
       </c>
       <c r="D180">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E180">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F180">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
@@ -4266,13 +4357,13 @@
       </c>
       <c r="D181">
         <f t="shared" si="2"/>
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E181">
+        <v>13</v>
+      </c>
+      <c r="F181">
         <v>12</v>
-      </c>
-      <c r="F181">
-        <v>15</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
@@ -4286,14 +4377,14 @@
         <v>15</v>
       </c>
       <c r="D182">
-        <f t="shared" si="2"/>
-        <v>14</v>
+        <f t="shared" ref="D182:D211" si="3">SUM(E182:F182)</f>
+        <v>27</v>
       </c>
       <c r="E182">
         <v>13</v>
       </c>
       <c r="F182">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
@@ -4307,14 +4398,14 @@
         <v>15</v>
       </c>
       <c r="D183">
-        <f t="shared" si="2"/>
-        <v>15</v>
+        <f t="shared" si="3"/>
+        <v>28</v>
       </c>
       <c r="E183">
         <v>13</v>
       </c>
       <c r="F183">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
@@ -4328,14 +4419,14 @@
         <v>15</v>
       </c>
       <c r="D184">
-        <f t="shared" si="2"/>
-        <v>16</v>
+        <f t="shared" si="3"/>
+        <v>15</v>
       </c>
       <c r="E184">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F184">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
@@ -4349,14 +4440,14 @@
         <v>15</v>
       </c>
       <c r="D185">
-        <f t="shared" si="2"/>
-        <v>17</v>
+        <f t="shared" si="3"/>
+        <v>16</v>
       </c>
       <c r="E185">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F185">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
@@ -4370,14 +4461,14 @@
         <v>15</v>
       </c>
       <c r="D186">
-        <f t="shared" si="2"/>
-        <v>18</v>
+        <f t="shared" si="3"/>
+        <v>17</v>
       </c>
       <c r="E186">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F186">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
@@ -4391,14 +4482,14 @@
         <v>15</v>
       </c>
       <c r="D187">
-        <f t="shared" si="2"/>
-        <v>19</v>
+        <f t="shared" si="3"/>
+        <v>18</v>
       </c>
       <c r="E187">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F187">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
@@ -4412,14 +4503,14 @@
         <v>15</v>
       </c>
       <c r="D188">
-        <f t="shared" si="2"/>
-        <v>20</v>
+        <f t="shared" si="3"/>
+        <v>19</v>
       </c>
       <c r="E188">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F188">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
@@ -4433,14 +4524,14 @@
         <v>15</v>
       </c>
       <c r="D189">
-        <f t="shared" si="2"/>
-        <v>21</v>
+        <f t="shared" si="3"/>
+        <v>20</v>
       </c>
       <c r="E189">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F189">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
@@ -4454,14 +4545,14 @@
         <v>15</v>
       </c>
       <c r="D190">
-        <f t="shared" si="2"/>
-        <v>22</v>
+        <f t="shared" si="3"/>
+        <v>21</v>
       </c>
       <c r="E190">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F190">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
@@ -4475,14 +4566,14 @@
         <v>15</v>
       </c>
       <c r="D191">
-        <f t="shared" si="2"/>
-        <v>23</v>
+        <f t="shared" si="3"/>
+        <v>22</v>
       </c>
       <c r="E191">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F191">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
@@ -4496,14 +4587,14 @@
         <v>15</v>
       </c>
       <c r="D192">
-        <f t="shared" si="2"/>
-        <v>24</v>
+        <f t="shared" si="3"/>
+        <v>23</v>
       </c>
       <c r="E192">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F192">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
@@ -4517,14 +4608,14 @@
         <v>15</v>
       </c>
       <c r="D193">
-        <f t="shared" si="2"/>
-        <v>25</v>
+        <f t="shared" si="3"/>
+        <v>24</v>
       </c>
       <c r="E193">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F193">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
@@ -4538,14 +4629,14 @@
         <v>15</v>
       </c>
       <c r="D194">
-        <f t="shared" si="2"/>
-        <v>26</v>
+        <f t="shared" si="3"/>
+        <v>25</v>
       </c>
       <c r="E194">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F194">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
@@ -4559,14 +4650,14 @@
         <v>15</v>
       </c>
       <c r="D195">
-        <f t="shared" ref="D195:D226" si="3">SUM(E195:F195)</f>
-        <v>27</v>
+        <f t="shared" si="3"/>
+        <v>26</v>
       </c>
       <c r="E195">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F195">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
@@ -4581,13 +4672,13 @@
       </c>
       <c r="D196">
         <f t="shared" si="3"/>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E196">
+        <v>14</v>
+      </c>
+      <c r="F196">
         <v>13</v>
-      </c>
-      <c r="F196">
-        <v>15</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
@@ -4602,13 +4693,13 @@
       </c>
       <c r="D197">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="E197">
         <v>14</v>
       </c>
       <c r="F197">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
@@ -4626,10 +4717,10 @@
         <v>16</v>
       </c>
       <c r="E198">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F198">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
@@ -4647,10 +4738,10 @@
         <v>17</v>
       </c>
       <c r="E199">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F199">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
@@ -4668,10 +4759,10 @@
         <v>18</v>
       </c>
       <c r="E200">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F200">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
@@ -4689,10 +4780,10 @@
         <v>19</v>
       </c>
       <c r="E201">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F201">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
@@ -4710,10 +4801,10 @@
         <v>20</v>
       </c>
       <c r="E202">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F202">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
@@ -4731,10 +4822,10 @@
         <v>21</v>
       </c>
       <c r="E203">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F203">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
@@ -4752,10 +4843,10 @@
         <v>22</v>
       </c>
       <c r="E204">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F204">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
@@ -4773,10 +4864,10 @@
         <v>23</v>
       </c>
       <c r="E205">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F205">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
@@ -4794,10 +4885,10 @@
         <v>24</v>
       </c>
       <c r="E206">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F206">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
@@ -4815,10 +4906,10 @@
         <v>25</v>
       </c>
       <c r="E207">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F207">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
@@ -4836,10 +4927,10 @@
         <v>26</v>
       </c>
       <c r="E208">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F208">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
@@ -4857,10 +4948,10 @@
         <v>27</v>
       </c>
       <c r="E209">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F209">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
@@ -4878,10 +4969,10 @@
         <v>28</v>
       </c>
       <c r="E210">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F210">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
@@ -4899,329 +4990,155 @@
         <v>29</v>
       </c>
       <c r="E211">
+        <v>15</v>
+      </c>
+      <c r="F211">
         <v>14</v>
-      </c>
-      <c r="F211">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A212">
-        <v>211</v>
-      </c>
-      <c r="B212">
-        <v>3</v>
-      </c>
-      <c r="C212">
-        <v>15</v>
-      </c>
-      <c r="D212">
-        <f t="shared" si="3"/>
-        <v>16</v>
-      </c>
-      <c r="E212">
-        <v>15</v>
-      </c>
-      <c r="F212">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A213">
-        <v>212</v>
-      </c>
-      <c r="B213">
-        <v>3</v>
-      </c>
-      <c r="C213">
-        <v>15</v>
-      </c>
-      <c r="D213">
-        <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-      <c r="E213">
-        <v>15</v>
-      </c>
-      <c r="F213">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A214">
-        <v>213</v>
-      </c>
-      <c r="B214">
-        <v>3</v>
-      </c>
-      <c r="C214">
-        <v>15</v>
-      </c>
-      <c r="D214">
-        <f t="shared" si="3"/>
-        <v>18</v>
-      </c>
-      <c r="E214">
-        <v>15</v>
-      </c>
-      <c r="F214">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A215">
-        <v>214</v>
-      </c>
-      <c r="B215">
-        <v>3</v>
-      </c>
-      <c r="C215">
-        <v>15</v>
-      </c>
-      <c r="D215">
-        <f t="shared" si="3"/>
-        <v>19</v>
-      </c>
-      <c r="E215">
-        <v>15</v>
-      </c>
-      <c r="F215">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A216">
-        <v>215</v>
-      </c>
-      <c r="B216">
-        <v>3</v>
-      </c>
-      <c r="C216">
-        <v>15</v>
-      </c>
-      <c r="D216">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-      <c r="E216">
-        <v>15</v>
-      </c>
-      <c r="F216">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A217">
-        <v>216</v>
-      </c>
-      <c r="B217">
-        <v>3</v>
-      </c>
-      <c r="C217">
-        <v>15</v>
-      </c>
-      <c r="D217">
-        <f t="shared" si="3"/>
-        <v>21</v>
-      </c>
-      <c r="E217">
-        <v>15</v>
-      </c>
-      <c r="F217">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A218">
-        <v>217</v>
-      </c>
-      <c r="B218">
-        <v>3</v>
-      </c>
-      <c r="C218">
-        <v>15</v>
-      </c>
-      <c r="D218">
-        <f t="shared" si="3"/>
-        <v>22</v>
-      </c>
-      <c r="E218">
-        <v>15</v>
-      </c>
-      <c r="F218">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A219">
-        <v>218</v>
-      </c>
-      <c r="B219">
-        <v>3</v>
-      </c>
-      <c r="C219">
-        <v>15</v>
-      </c>
-      <c r="D219">
-        <f t="shared" si="3"/>
-        <v>23</v>
-      </c>
-      <c r="E219">
-        <v>15</v>
-      </c>
-      <c r="F219">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A220">
-        <v>219</v>
-      </c>
-      <c r="B220">
-        <v>3</v>
-      </c>
-      <c r="C220">
-        <v>15</v>
-      </c>
-      <c r="D220">
-        <f t="shared" si="3"/>
-        <v>24</v>
-      </c>
-      <c r="E220">
-        <v>15</v>
-      </c>
-      <c r="F220">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A221">
-        <v>220</v>
-      </c>
-      <c r="B221">
-        <v>3</v>
-      </c>
-      <c r="C221">
-        <v>15</v>
-      </c>
-      <c r="D221">
-        <f t="shared" si="3"/>
-        <v>25</v>
-      </c>
-      <c r="E221">
-        <v>15</v>
-      </c>
-      <c r="F221">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A222">
-        <v>221</v>
-      </c>
-      <c r="B222">
-        <v>3</v>
-      </c>
-      <c r="C222">
-        <v>15</v>
-      </c>
-      <c r="D222">
-        <f t="shared" si="3"/>
-        <v>26</v>
-      </c>
-      <c r="E222">
-        <v>15</v>
-      </c>
-      <c r="F222">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A223">
-        <v>222</v>
-      </c>
-      <c r="B223">
-        <v>3</v>
-      </c>
-      <c r="C223">
-        <v>15</v>
-      </c>
-      <c r="D223">
-        <f t="shared" si="3"/>
-        <v>27</v>
-      </c>
-      <c r="E223">
-        <v>15</v>
-      </c>
-      <c r="F223">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A224">
-        <v>223</v>
-      </c>
-      <c r="B224">
-        <v>3</v>
-      </c>
-      <c r="C224">
-        <v>15</v>
-      </c>
-      <c r="D224">
-        <f t="shared" si="3"/>
-        <v>28</v>
-      </c>
-      <c r="E224">
-        <v>15</v>
-      </c>
-      <c r="F224">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A225">
-        <v>224</v>
-      </c>
-      <c r="B225">
-        <v>3</v>
-      </c>
-      <c r="C225">
-        <v>15</v>
-      </c>
-      <c r="D225">
-        <f t="shared" si="3"/>
-        <v>29</v>
-      </c>
-      <c r="E225">
-        <v>15</v>
-      </c>
-      <c r="F225">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A226">
-        <v>225</v>
-      </c>
-      <c r="B226">
-        <v>3</v>
-      </c>
-      <c r="C226">
-        <v>15</v>
-      </c>
-      <c r="D226">
-        <f t="shared" si="3"/>
-        <v>30</v>
-      </c>
-      <c r="E226">
-        <v>15</v>
-      </c>
-      <c r="F226">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <f>(4-A2)</f>
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ref="E2:F5" si="0">(4-B2)</f>
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D5" si="1">(4-A3)</f>
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <f>SUM(D2:D5)</f>
+        <v>8</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ref="E7:F7" si="2">SUM(E2:E5)</f>
+        <v>9</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/pinederby.xlsx
+++ b/pinederby.xlsx
@@ -13,7 +13,8 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Id</t>
   </si>
@@ -97,6 +98,18 @@
   </si>
   <si>
     <t>S3</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>offset</t>
+  </si>
+  <si>
+    <t>entry</t>
   </si>
 </sst>
 </file>
@@ -5004,9 +5017,128 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <f>IF((B2+C2)&lt;=MAX(A2,A17),(B2+C2),(B2+C2-MAX(A2,A17)))</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
